--- a/PDRMYE/GUÍAS RÁPIDAS/Matriz de guias/Listado de guias.xlsx
+++ b/PDRMYE/GUÍAS RÁPIDAS/Matriz de guias/Listado de guias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inifap.gob.mx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PDRMYE\GUÍAS RÁPIDAS\Matriz de guias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>CPCH</t>
   </si>
@@ -440,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,76 +530,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -603,44 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,30 +559,127 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C21"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,705 +975,707 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="52" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="40" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="32"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="32"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="32"/>
-      <c r="C42" s="28" t="s">
+      <c r="B42" s="44"/>
+      <c r="C42" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="18" t="s">
+      <c r="B43" s="44"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="32"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="18" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="18" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="32"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="18" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="18" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="32"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="32"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="27" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="32"/>
-      <c r="C50" s="39" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="32"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="41" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="32"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="41" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B53" s="32"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="47" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="41"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="32"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="45" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="41"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="48" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="32"/>
-      <c r="C56" s="23" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="18"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="32"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="18" t="s">
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="18"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="32"/>
-      <c r="C58" s="39" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="41"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="46" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="41"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="32"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41" t="s">
+      <c r="B60" s="44"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="41"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="32"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41" t="s">
+      <c r="B61" s="44"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F61" s="41"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="32"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41" t="s">
+      <c r="B62" s="44"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="41"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="32"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="41"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="32"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="46" t="s">
+      <c r="B64" s="44"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F64" s="41"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="32"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41" t="s">
+      <c r="B65" s="44"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="41"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="32"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41" t="s">
+      <c r="B66" s="44"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="32"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="41" t="s">
+      <c r="B67" s="44"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="32"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="46" t="s">
+      <c r="B68" s="44"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="41"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="32"/>
-      <c r="C69" s="23" t="s">
+      <c r="B69" s="44"/>
+      <c r="C69" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="18"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="32"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="18" t="s">
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="18"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="32"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="31" t="s">
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F71" s="18"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="32"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="27" t="s">
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F72" s="18"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="1"/>
@@ -1677,347 +1686,347 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="4" t="s">
+      <c r="B75" s="16"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="25" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="18"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="25" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F77" s="18"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28" t="s">
+      <c r="B78" s="40"/>
+      <c r="C78" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="18"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="18" t="s">
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F79" s="18"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="18" t="s">
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="18"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="18" t="s">
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="18"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="18" t="s">
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="18"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="18" t="s">
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="18"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="18"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="18" t="s">
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F85" s="18"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="18" t="s">
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="18"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="18" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F87" s="18"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="18" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F88" s="18"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="41"/>
+      <c r="D89" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="3" t="s">
+      <c r="B90" s="16"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="24" t="s">
+      <c r="C91" s="37"/>
+      <c r="D91" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="18"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="18" t="s">
+      <c r="B92" s="40"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="18" t="s">
+      <c r="B93" s="40"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F93" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="28"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="18" t="s">
+      <c r="B94" s="40"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F94" s="18"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="18" t="s">
+      <c r="B95" s="40"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F95" s="18"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="25" t="s">
+      <c r="B96" s="40"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="18"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="17"/>
+      <c r="D97" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="12"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="14"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="49" t="s">
+      <c r="C99" s="37"/>
+      <c r="D99" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="34"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="30" t="s">
+      <c r="B100" s="32"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="34"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="18" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="34"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="18" t="s">
+      <c r="B102" s="32"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F102" s="18"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="34"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="18" t="s">
+      <c r="B103" s="32"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F103" s="18"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="34"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="49" t="s">
+      <c r="B104" s="32"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="18"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="18" t="s">
+      <c r="B105" s="33"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F105" s="18"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="2" t="s">
+      <c r="C106" s="17"/>
+      <c r="D106" s="15" t="s">
         <v>81</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -2026,126 +2035,119 @@
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="2"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="15"/>
       <c r="E107" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="3" t="s">
+      <c r="B108" s="16"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="24" t="s">
+      <c r="C109" s="24"/>
+      <c r="D109" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="18"/>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="37"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="18" t="s">
+      <c r="B110" s="22"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F110" s="18"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="37"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="18" t="s">
+      <c r="B111" s="22"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F111" s="18"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="37"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="18" t="s">
+      <c r="B112" s="22"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F112" s="18"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="37"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="18" t="s">
+      <c r="B113" s="22"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F113" s="18"/>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="37"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="18" t="s">
+      <c r="B114" s="22"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F114" s="18"/>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="37"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="18" t="s">
+      <c r="B115" s="22"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F115" s="18"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="38"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="18" t="s">
+      <c r="B116" s="23"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" s="4" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D109:D116"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="C109:C116"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C99:C105"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="B76:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C22:C41"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D37"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C50:C55"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="B3:B72"/>
     <mergeCell ref="B73:B75"/>
@@ -2162,20 +2164,27 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="C69:C72"/>
     <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="C22:C41"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D37"/>
-    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="B76:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C99:C105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D109:D116"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="C109:C116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PDRMYE/GUÍAS RÁPIDAS/Matriz de guias/Listado de guias.xlsx
+++ b/PDRMYE/GUÍAS RÁPIDAS/Matriz de guias/Listado de guias.xlsx
@@ -23,6 +23,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iris Lechuga</author>
+  </authors>
+  <commentList>
+    <comment ref="F100" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Iris Lechuga:
+Este modulo no esta en plataforma en su lugar es participaciones y aportaciones </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
@@ -423,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +474,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -557,9 +611,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,24 +619,109 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -595,91 +731,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,40 +1036,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1017,51 +1078,51 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1070,47 +1131,47 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1119,29 +1180,29 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="54" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="20" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1150,31 +1211,31 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -1183,18 +1244,18 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="9" t="s">
         <v>18</v>
       </c>
@@ -1203,128 +1264,128 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="46"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="46"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="44"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="44"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="46"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="44"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="44"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="46"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="44"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="44"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="44"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="46" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -1333,40 +1394,40 @@
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="44"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="46"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="46"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="44"/>
-      <c r="C42" s="40" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -1375,56 +1436,56 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="44"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="44"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="44"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="44"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="44"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="49" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -1433,51 +1494,51 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="44"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="44"/>
-      <c r="C50" s="47" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="44"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="50"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="52" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="44"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B53" s="44"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="13" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -1486,9 +1547,9 @@
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="44"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="50" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -1497,22 +1558,22 @@
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="44"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="14" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="55" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="44"/>
-      <c r="C56" s="45" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -1521,20 +1582,20 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="20"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="44"/>
-      <c r="C58" s="47" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="10" t="s">
@@ -1543,101 +1604,101 @@
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="44"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="12" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="44"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="44"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="44"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="46"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="44"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="46"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="44"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="12" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="44"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="44"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="46"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="46"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="44"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="12" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="44"/>
-      <c r="C69" s="45" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -1646,18 +1707,18 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="48"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="48" t="s">
+      <c r="B71" s="24"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -1666,16 +1727,16 @@
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="44"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="48"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="1"/>
@@ -1686,9 +1747,9 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="43" t="s">
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -1697,16 +1758,16 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="43"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="4"/>
@@ -1719,7 +1780,7 @@
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B77" s="40"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5" t="s">
         <v>66</v>
@@ -1730,11 +1791,11 @@
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="40"/>
-      <c r="C78" s="40" t="s">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -1743,56 +1804,56 @@
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="20"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="20"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="20"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="20"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="20"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="40"/>
-      <c r="C84" s="40" t="s">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="18" t="s">
         <v>66</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -1801,46 +1862,46 @@
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="20"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="4" t="s">
         <v>76</v>
       </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="20"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="20"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="20"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="41"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="2" t="s">
         <v>81</v>
       </c>
@@ -1850,8 +1911,8 @@
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
-      <c r="C90" s="42"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="27"/>
       <c r="D90" s="2" t="s">
         <v>82</v>
       </c>
@@ -1861,11 +1922,11 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="20" t="s">
+      <c r="C91" s="31"/>
+      <c r="D91" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -1874,48 +1935,48 @@
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="40"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="20"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="52" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="40"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="20"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="52" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="40"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="20"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="40"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="20"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B96" s="40"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="5" t="s">
         <v>81</v>
       </c>
@@ -1925,11 +1986,11 @@
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="29" t="s">
+      <c r="C97" s="39"/>
+      <c r="D97" s="37" t="s">
         <v>91</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -1938,33 +1999,33 @@
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="34" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="44" t="s">
         <v>96</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="32"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="35"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="45"/>
       <c r="E100" s="8" t="s">
         <v>126</v>
       </c>
@@ -1973,38 +2034,38 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="32"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="45"/>
       <c r="E101" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="52" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="32"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="35"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="45"/>
       <c r="E102" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="32"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="36"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="46"/>
       <c r="E103" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="32"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="34" t="s">
+      <c r="B104" s="42"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="44" t="s">
         <v>99</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -2013,20 +2074,20 @@
       <c r="F104" s="4"/>
     </row>
     <row r="105" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="36"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="15" t="s">
+      <c r="C106" s="39"/>
+      <c r="D106" s="47" t="s">
         <v>81</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -2035,17 +2096,17 @@
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="16"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="15"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B108" s="16"/>
-      <c r="C108" s="19"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="40"/>
       <c r="D108" s="2" t="s">
         <v>103</v>
       </c>
@@ -2055,11 +2116,11 @@
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="20" t="s">
+      <c r="C109" s="28"/>
+      <c r="D109" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -2068,63 +2129,63 @@
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="22"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="20"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="4" t="s">
         <v>106</v>
       </c>
       <c r="F110" s="4"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="22"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="20"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="18"/>
       <c r="E111" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F111" s="4"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="22"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="20"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="4" t="s">
         <v>108</v>
       </c>
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="22"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="20"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="4" t="s">
         <v>109</v>
       </c>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="22"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="20"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="22"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="20"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="23"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="20"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="4" t="s">
         <v>112</v>
       </c>
@@ -2134,24 +2195,27 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C22:C41"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D37"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="B3:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D109:D116"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C99:C105"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="B76:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C89:C90"/>
     <mergeCell ref="D78:D83"/>
     <mergeCell ref="C78:C83"/>
     <mergeCell ref="C3:C5"/>
@@ -2164,29 +2228,27 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="C69:C72"/>
     <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="B76:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C99:C105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D109:D116"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="B3:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C22:C41"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D37"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D48:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>